--- a/classification/droptc/sentence/modern-bert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/unfreeze/24677315/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9955198764801025</v>
+        <v>0.9993023872375488</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9877251982688904</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9865089058876038</v>
+        <v>0.999127209186554</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9918204545974731</v>
+        <v>0.9985652565956116</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9994382262229919</v>
+        <v>0.9998507499694824</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9930786490440369</v>
+        <v>0.9998030066490173</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9990218877792358</v>
+        <v>0.9997604489326477</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9985095858573914</v>
+        <v>0.9998617172241211</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9821056127548218</v>
+        <v>0.9997604489326477</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998290479183197</v>
+        <v>0.9884070754051208</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9995947480201721</v>
+        <v>0.9998464584350586</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9853519797325134</v>
+        <v>0.9991008043289185</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9773617386817932</v>
+        <v>0.9996809959411621</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9927043914794922</v>
+        <v>0.9998145699501038</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9993626475334167</v>
+        <v>0.9993194341659546</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7248664498329163</v>
+        <v>0.9996267557144165</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999052107334137</v>
+        <v>0.8852106928825378</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9923911690711975</v>
+        <v>0.9999023675918579</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995299577713013</v>
+        <v>0.9992784857749939</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9979326725006104</v>
+        <v>0.999911904335022</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9993396401405334</v>
+        <v>0.9997904896736145</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9955549836158752</v>
+        <v>0.9998729228973389</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9751308560371399</v>
+        <v>0.9997568726539612</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9949347376823425</v>
+        <v>0.9389126300811768</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9992616772651672</v>
+        <v>0.996260404586792</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9991927742958069</v>
+        <v>0.9997890591621399</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9947890043258667</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9989268183708191</v>
+        <v>0.9998528957366943</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.999473512172699</v>
+        <v>0.999433696269989</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9988961219787598</v>
+        <v>0.9997971653938293</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9972001314163208</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9984122514724731</v>
+        <v>0.9993515610694885</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9985743761062622</v>
+        <v>0.9963040351867676</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9992539286613464</v>
+        <v>0.9994506239891052</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5328547954559326</v>
+        <v>0.999841570854187</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9623653888702393</v>
+        <v>0.9990108013153076</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9985939860343933</v>
+        <v>0.9999243021011353</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.6103833913803101</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9992021918296814</v>
+        <v>0.9500795006752014</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.998884379863739</v>
+        <v>0.9999325275421143</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9992056488990784</v>
+        <v>0.7453890442848206</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9994553923606873</v>
+        <v>0.997418999671936</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9992308616638184</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9992276430130005</v>
+        <v>0.9995396137237549</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9993502497673035</v>
+        <v>0.9979204535484314</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9993888139724731</v>
+        <v>0.6348755359649658</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7195616364479065</v>
+        <v>0.9991169571876526</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9992892742156982</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9989914298057556</v>
+        <v>0.9956310987472534</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9992971420288086</v>
+        <v>0.9858988523483276</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9976193308830261</v>
+        <v>0.9995434880256653</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9992714524269104</v>
+        <v>0.9956310987472534</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9955549836158752</v>
+        <v>0.9111835360527039</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9993932247161865</v>
+        <v>0.9998314380645752</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9958773851394653</v>
+        <v>0.9996755123138428</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9591503143310547</v>
+        <v>0.9999161958694458</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9991311430931091</v>
+        <v>0.9995177984237671</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986581802368164</v>
+        <v>0.9996004700660706</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9993659853935242</v>
+        <v>0.9997337460517883</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9949347376823425</v>
+        <v>0.9998785257339478</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9986022114753723</v>
+        <v>0.9995414018630981</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9941685199737549</v>
+        <v>0.9995325803756714</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9993639588356018</v>
+        <v>0.706210732460022</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9994331002235413</v>
+        <v>0.9996702671051025</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9973775148391724</v>
+        <v>0.9996702671051025</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8155453205108643</v>
+        <v>0.9990092515945435</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9923432469367981</v>
+        <v>0.9996702671051025</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9993178844451904</v>
+        <v>0.999373733997345</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9994246959686279</v>
+        <v>0.9998692274093628</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9993267059326172</v>
+        <v>0.9807159900665283</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9979580640792847</v>
+        <v>0.9998416900634766</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9990346431732178</v>
+        <v>0.9995174407958984</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9850506782531738</v>
+        <v>0.9993504881858826</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9705246090888977</v>
+        <v>0.9998999834060669</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4109628796577454</v>
+        <v>0.9995174407958984</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9992586970329285</v>
+        <v>0.9995567202568054</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9990731477737427</v>
+        <v>0.9995174407958984</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9947944283485413</v>
+        <v>0.9998965263366699</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9952448010444641</v>
+        <v>0.9995313882827759</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9925029277801514</v>
+        <v>0.9994834661483765</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9992690682411194</v>
+        <v>0.9997016787528992</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9988068342208862</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9989045858383179</v>
+        <v>0.9988068342208862</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9895321130752563</v>
+        <v>0.9999197721481323</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9990900754928589</v>
+        <v>0.999768078327179</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9132434725761414</v>
+        <v>0.9475409984588623</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9995005130767822</v>
+        <v>0.9995095729827881</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9991415739059448</v>
+        <v>0.9996833801269531</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9951063394546509</v>
+        <v>0.9999320507049561</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9991403818130493</v>
+        <v>0.999929666519165</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9990758895874023</v>
+        <v>0.9999305009841919</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9982677698135376</v>
+        <v>0.9999200105667114</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9949347376823425</v>
+        <v>0.9999158382415771</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9992468357086182</v>
+        <v>0.9999123811721802</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9990262985229492</v>
+        <v>0.9950054287910461</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9992526173591614</v>
+        <v>0.9970381259918213</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7200590968132019</v>
+        <v>0.9998798370361328</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9995005130767822</v>
+        <v>0.9992831349372864</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9968249797821045</v>
+        <v>0.9957756400108337</v>
       </c>
     </row>
     <row r="101">
@@ -3255,14 +3255,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6080762147903442</v>
+        <v>0.9995900988578796</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9930786490440369</v>
+        <v>0.9808413982391357</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9981202483177185</v>
+        <v>0.7768684029579163</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9591503143310547</v>
+        <v>0.999889612197876</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9992572665214539</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9991857409477234</v>
+        <v>0.9998404979705811</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6446366906166077</v>
+        <v>0.9971532821655273</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9919678568840027</v>
+        <v>0.998939573764801</v>
       </c>
     </row>
     <row r="109">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7579672336578369</v>
+        <v>0.9996095299720764</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9992735981941223</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9992464780807495</v>
+        <v>0.9990979433059692</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9986549615859985</v>
+        <v>0.9985859394073486</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9992188215255737</v>
+        <v>0.9970381259918213</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.997590184211731</v>
+        <v>0.9999330043792725</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.523775041103363</v>
+        <v>0.999239444732666</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9918204545974731</v>
+        <v>0.9703054428100586</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9989165067672729</v>
+        <v>0.9996351003646851</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9923432469367981</v>
+        <v>0.9320674538612366</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9947890043258667</v>
+        <v>0.9285750985145569</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8190852999687195</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9994082450866699</v>
+        <v>0.9985100626945496</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9939414262771606</v>
+        <v>0.9999001026153564</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8137798309326172</v>
+        <v>0.9985100626945496</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9969537258148193</v>
+        <v>0.9999001026153564</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9919307827949524</v>
+        <v>0.9985100626945496</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9989997744560242</v>
+        <v>0.9999446868896484</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9990085959434509</v>
+        <v>0.721203088760376</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9940153956413269</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9991806149482727</v>
+        <v>0.9822494983673096</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9992541670799255</v>
+        <v>0.3629190027713776</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9946640729904175</v>
+        <v>0.999869704246521</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9987934827804565</v>
+        <v>0.7159085869789124</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9930786490440369</v>
+        <v>0.9998002648353577</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9948418736457825</v>
+        <v>0.9996978044509888</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9811965227127075</v>
+        <v>0.9996746778488159</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5212104320526123</v>
+        <v>0.9990645051002502</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9995037317276001</v>
+        <v>0.9998635053634644</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9931027889251709</v>
+        <v>0.9997302889823914</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7308484315872192</v>
+        <v>0.9997860789299011</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9952179789543152</v>
+        <v>0.9998102784156799</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9991150498390198</v>
+        <v>0.5898230671882629</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9951523542404175</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9979664087295532</v>
+        <v>0.9980396628379822</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.99760901927948</v>
+        <v>0.9998719692230225</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9992620348930359</v>
+        <v>0.9980396628379822</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9994561076164246</v>
+        <v>0.9997921586036682</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9987599849700928</v>
+        <v>0.999373733997345</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9801744222640991</v>
+        <v>0.999873161315918</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9680982232093811</v>
+        <v>0.9992104768753052</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9991718530654907</v>
+        <v>0.9938017725944519</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9991523027420044</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9995101690292358</v>
+        <v>0.9542924165725708</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9960220456123352</v>
+        <v>0.9998832941055298</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9924232959747314</v>
+        <v>0.9993327260017395</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9919527173042297</v>
+        <v>0.9999408721923828</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9990190267562866</v>
+        <v>0.9968944787979126</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9980179071426392</v>
+        <v>0.9999412298202515</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9975925087928772</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9883610606193542</v>
+        <v>0.999868631362915</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9990384578704834</v>
+        <v>0.5076215863227844</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9993639588356018</v>
+        <v>0.999789297580719</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9984720349311829</v>
+        <v>0.9997660517692566</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9903674125671387</v>
+        <v>0.9992427825927734</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9911649823188782</v>
+        <v>0.9989705085754395</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9994307160377502</v>
+        <v>0.9999474287033081</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9996009469032288</v>
+        <v>0.9991430044174194</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996009469032288</v>
+        <v>0.9990273714065552</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9979326725006104</v>
+        <v>0.8958907723426819</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8374081254005432</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9986904263496399</v>
+        <v>0.9990273714065552</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9990501999855042</v>
+        <v>0.9753857254981995</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9843111634254456</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9947251677513123</v>
+        <v>0.9998997449874878</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9988266825675964</v>
+        <v>0.9998509883880615</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9992324113845825</v>
+        <v>0.9998997449874878</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9933686852455139</v>
+        <v>0.9997740387916565</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.784676194190979</v>
+        <v>0.9998509883880615</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9990130662918091</v>
+        <v>0.9995775818824768</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9809576272964478</v>
+        <v>0.9997668862342834</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9992904663085938</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4929523766040802</v>
+        <v>0.9993211030960083</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.9997745156288147</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9989120960235596</v>
+        <v>0.9988179802894592</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9991130232810974</v>
+        <v>0.9999380111694336</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9145562648773193</v>
+        <v>0.9999363422393799</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9468004107475281</v>
+        <v>0.999925971031189</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9990845918655396</v>
+        <v>0.9997751116752625</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9991739392280579</v>
+        <v>0.999836802482605</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9958531856536865</v>
+        <v>0.9998668432235718</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9908017516136169</v>
+        <v>0.9998583793640137</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9994550347328186</v>
+        <v>0.4863418936729431</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9977114200592041</v>
+        <v>0.9998496770858765</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9463846683502197</v>
+        <v>0.9998378753662109</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9992390871047974</v>
+        <v>0.9984632730484009</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9992151260375977</v>
+        <v>0.9978068470954895</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9992021918296814</v>
+        <v>0.9998910427093506</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9682188034057617</v>
+        <v>0.9998401403427124</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9992445707321167</v>
+        <v>0.9998346567153931</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9889329671859741</v>
+        <v>0.9996391534805298</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9993396401405334</v>
+        <v>0.9281951189041138</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9950834512710571</v>
+        <v>0.9999245405197144</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9995914101600647</v>
+        <v>0.9996618032455444</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9990046620368958</v>
+        <v>0.9995444416999817</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9985865354537964</v>
+        <v>0.9988129138946533</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9993820190429688</v>
+        <v>0.9998216032981873</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9986956715583801</v>
+        <v>0.999879002571106</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6243784427642822</v>
+        <v>0.9975888729095459</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9427880048751831</v>
+        <v>0.9997295737266541</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9994418025016785</v>
+        <v>0.9960188269615173</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9947890043258667</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
   </sheetData>
